--- a/Data Evaluation IRENA Orchestration Hydrogen.xlsx
+++ b/Data Evaluation IRENA Orchestration Hydrogen.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Win10 Pro x64\OneDrive\Documents\University\Globale Klimapolitik\Hausarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B61DD9-0C31-4EF4-8DF9-CA8CB7941A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23EE094-D573-4700-844D-D8F3908919A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{70FB9C99-7396-420D-A726-14B94965C19C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Raw data" sheetId="1" r:id="rId1"/>
+    <sheet name="information about data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,15 +37,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="141">
   <si>
     <t>Nr</t>
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Date</t>
   </si>
   <si>
     <t>Year</t>
@@ -83,32 +81,389 @@
     <t>Coordination</t>
   </si>
   <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Last retrieved</t>
+  </si>
+  <si>
+    <t>Is orchestration</t>
+  </si>
+  <si>
+    <t>Intermediary</t>
+  </si>
+  <si>
+    <t>Orchestrator</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
     <t>- Formally adapting standards and norms from other actors
-- Also implicit in cooperations, assistance, etc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Report: Innovation landscape for smart electrification </t>
-  </si>
-  <si>
-    <t>https://www.irena.org/Publications/2023/Jun/Innovation-landscape-for-smart-electrification</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Last retrieved</t>
-  </si>
-  <si>
-    <t>Is orchestration</t>
-  </si>
-  <si>
-    <t>Intermediary</t>
-  </si>
-  <si>
-    <t>Orchestrator</t>
-  </si>
-  <si>
-    <t>Target</t>
+- Also implicit in assistance</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Date issued</t>
+  </si>
+  <si>
+    <t>if not orchestration</t>
+  </si>
+  <si>
+    <t>IRENA</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/News/pressreleases/2023/May/IRENA-and-thyssenkrupp-Agree-to-Accelerate-Green-Hydrogen-Solutions</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Partnership</t>
+  </si>
+  <si>
+    <t>IRENA and thyssenkrupp Agree to Accelerate Green Hydrogen Solutions</t>
+  </si>
+  <si>
+    <t>Collaborative Framework on Green Hydrogen (CFGH)</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/Events/2023/Apr/Collaborative-Framework-on-Green-Hydrogen-CFGH</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>Other organizatoins, Consumers</t>
+  </si>
+  <si>
+    <t>Creating a global hydrogen market: Certification to enable trade</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/Publications/2023/Jan/Creating-a-global-hydrogen-market-Certification-to-enable-trade</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Accelerating hydrogen deployment in the G7: Recommendations for the Hydrogen Action Pact</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/Publications/2022/Nov/Accelerating-hydrogen-deployment-in-the-G7</t>
+  </si>
+  <si>
+    <t>IRENA and UNIDO Support Global Energy Transition Through Green Hydrogen</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/News/pressreleases/2022/Nov/IRENA-and-UNIDO-Support-Global-Energy-Transition-Through-Green-Hydrogen</t>
+  </si>
+  <si>
+    <t>https://mc-cd8320d4-36a1-40ac-83cc-3389-cdn-endpoint.azureedge.net/-/media/Files/IRENA/Remember/Council/Twenty-fourth-Council-meeting/C_24_BN_1-Accelerating-Hydrogen--Opportunities-for-International-Cooperation.pdf?rev=d8ed2797bbe940deb737d2f1a9881127</t>
+  </si>
+  <si>
+    <t>Accelerating Hydrogen – Opportunities for International Cooperation</t>
+  </si>
+  <si>
+    <t>IRENA and Partners Urge Closer International Collaboration to Ramp Up Green Hydrogen</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/News/articles/2022/Oct/IRENA-and-Partners-Urge-Closer-International-Collaboration-to-Ramp-Up-Green-Hydrogen</t>
+  </si>
+  <si>
+    <t>G7 Hydrogen Action Pact Workshop</t>
+  </si>
+  <si>
+    <t>Workshop</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/Events/2022/Sep/G7-Hydrogen-Action-pact-workshop</t>
+  </si>
+  <si>
+    <t>G7 members</t>
+  </si>
+  <si>
+    <t>Global Hydrogen Trade to Meet the 1.5°C Climate Goal: Trade Outlook for 2050 and Way Forward</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/Publications/2022/Jul/Global-Hydrogen-Trade-Outlook</t>
+  </si>
+  <si>
+    <t>excluding criteria</t>
+  </si>
+  <si>
+    <t>IRENA in the news</t>
+  </si>
+  <si>
+    <t>digital content</t>
+  </si>
+  <si>
+    <t>Direct-General</t>
+  </si>
+  <si>
+    <t>Workshop on Quality Infrastructure for Green Hydrogen</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/Events/2022/Jun/Workshop-on-Quality-Infrastructure-for-Green-Hydrogen</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/Events/2022/Jun/Second-EU-Canada-Dialogue-on-Hydrogen</t>
+  </si>
+  <si>
+    <t>Second EU-Canada Dialogue on Hydrogen</t>
+  </si>
+  <si>
+    <t>Canada + EU</t>
+  </si>
+  <si>
+    <t>Accelerating Green Hydrogen Technologies and Energy Storage for the Energy Transitions</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/Events/2022/Jun/Accelerating-Green-Hydrogen-Technologies-and-Energy-Storage-for-The-Energy-Transitions</t>
+  </si>
+  <si>
+    <t>Energy Transition Working Group</t>
+  </si>
+  <si>
+    <t>G20</t>
+  </si>
+  <si>
+    <t>Global Hydrogen Trade to Meet the 1.5°C Climate Goal: Green Hydrogen Cost and Potential</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/Publications/2022/May/Global-hydrogen-trade-Cost</t>
+  </si>
+  <si>
+    <t>Fifth Meeting of the Collaborative Framework on Green Hydrogen</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/Events/2022/May/Fifth-Meeting-of-the-Collaborative-Framework-on-Green-Hydrogen</t>
+  </si>
+  <si>
+    <t>Private actors and governments</t>
+  </si>
+  <si>
+    <t>Innovation Trends in Electrolysers for Hydrogen Production</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/Publications/2022/May/Innovation-Trends-in-Electrolysers-for-Hydrogen-Production</t>
+  </si>
+  <si>
+    <t>First EU-Canada Dialogue on Hydrogen - Supporting the Development of a Global Regulatory Framework for Hydrogen and Its Derivatives</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/Events/2022/Apr/First-EU-Canada-Dialogue-on-Hydrogen</t>
+  </si>
+  <si>
+    <t>Global Hydrogen Trade to Meet the 1.5°C Climate Goal: Technology Review of Hydrogen Carriers</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/Publications/2022/Apr/Global-hydrogen-trade-Part-II</t>
+  </si>
+  <si>
+    <t>Quality Infrastructure for Green Hydrogen: technical standards and quality control for the production and trade of renewable hydrogen</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/Events/2022/Apr/Dialogue-Between-EU-and-Gulf-Cooperation-Council-on-a-Regulatory-Framework-to-Develop-Green-Hydrogen</t>
+  </si>
+  <si>
+    <t>EU and Gulf Cooperation Council</t>
+  </si>
+  <si>
+    <t>Hydrogen in the Gas Grid Workshop-2</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/Events/2022/Mar/Hydrogen-in-the-gas-grid-workshop--2</t>
+  </si>
+  <si>
+    <t>governments, industry, academia, experts and stakeholders</t>
+  </si>
+  <si>
+    <t>Innovation and Technology Centre</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/Publications/2022/Mar/The-Green-Hydrogen-Certification-Brief</t>
+  </si>
+  <si>
+    <t>Decarbonising End-use Sectors: Green Hydrogen Certification</t>
+  </si>
+  <si>
+    <t>Green Hydrogen for Industry: A Guide to Policy Making</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/Publications/2022/Mar/Green-Hydrogen-for-Industry</t>
+  </si>
+  <si>
+    <t>IRENA Coalition for Action</t>
+  </si>
+  <si>
+    <t>Enabling Green Hydrogen: Industrial Policy, Certification Systems, and Inclusiveness</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/Events/2022/Mar/Green-hydrogen-policy-talk</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/Publications/2022/Jan/Geopolitics-of-the-Energy-Transformation-Hydrogen</t>
+  </si>
+  <si>
+    <t>Geopolitics of the Energy Transformation: The Hydrogen Factor</t>
+  </si>
+  <si>
+    <t>Hydrogen in the Gas Grid: Focus on the Technical-economic Considerations of Delivering Hydrogen via the Gas Grid</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/Events/2021/Dec/Hydrogen-in-the-Gas-Grid-Workshop-Series</t>
+  </si>
+  <si>
+    <t>Fourth Meeting of the Collaborative Framework on Green Hydrogen</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/Events/2021/Oct/Fourth-Meeting-of-the-Collaborative-Framework-on-Green-Hydrogen</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/News/articles/2021/Oct/IRENA-Members-Pave-Way-for-New-Green-Hydrogen-Toolbox</t>
+  </si>
+  <si>
+    <t>IRENA Members Pave Way for New Green Hydrogen Toolbox</t>
+  </si>
+  <si>
+    <t>Enabling measures</t>
+  </si>
+  <si>
+    <t>A Dialogue Between EU and North African States on a Regulatory Framework to Develop Green Hydrogen Supply, Demand and Trade</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/Events/2021/Oct/A-Dialogue-Between-EU-and-North-African-States-on-a-Regulatory-Framework-to-Develop-Green-Hydrogen</t>
+  </si>
+  <si>
+    <t>EU and NA states</t>
+  </si>
+  <si>
+    <t>IRENA and the IPHE Forge Ties to Build a Green Hydrogen Economy Globally</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/News/pressreleases/2021/Oct/IRENA-and-IPHE-Forge-Ties-to-Build-a-Green-Hydrogen-Economy-Globally</t>
+  </si>
+  <si>
+    <t>Snam and IRENA to Collaborate on the Development of Green Hydrogen Worldwide</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/News/pressreleases/2021/Sep/Snam-and-IRENA-to-Collaborate-on-the-Development-of-Green-Hydrogen-Initiatives-Worldwide</t>
+  </si>
+  <si>
+    <t>Renewables Readiness Assessment: Paraguay</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/Publications/2021/Sep/Renewables-Readiness-Assessment-Paraguay</t>
+  </si>
+  <si>
+    <t>IRENA and Hydrogen Council Forge Alliance to Scale Up Hydrogen Across the Energy System</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/News/pressreleases/2021/Sep/IRENA-and-HC-forge-alliance-to-scale-up-hydrogen</t>
+  </si>
+  <si>
+    <t>Hydrogen Council</t>
+  </si>
+  <si>
+    <t>Companies</t>
+  </si>
+  <si>
+    <t>IPHE</t>
+  </si>
+  <si>
+    <t>Morocco and IRENA Partner to Boost Renewables and Green Hydrogen Development</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/News/pressreleases/2021/Jun/Morocco-and-IRENA-Partner-to-Boost-Renewables-and-Green-Hydrogen-Development</t>
+  </si>
+  <si>
+    <t>Green Hydrogen Supply: A Guide to Policy Making</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/Publications/2021/May/Green-Hydrogen-Supply-A-Guide-To-Policy-Making</t>
+  </si>
+  <si>
+    <t>Decarbonising end-use sectors: Practical insights on green hydrogen</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/Publications/2021/May/Decarbonising-end-use-sectors-green-hydrogen</t>
+  </si>
+  <si>
+    <t>Energy Transition the role of hydrogen- Global and Brazil</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/Events/2020/Dec/Energy-Transition-the-role-of-hydrogen</t>
+  </si>
+  <si>
+    <t>FGV Energia</t>
+  </si>
+  <si>
+    <t>knowledge takers</t>
+  </si>
+  <si>
+    <t>Green hydrogen cost reduction</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/Publications/2020/Dec/Green-hydrogen-cost-reduction</t>
+  </si>
+  <si>
+    <t>total search results</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/Publications/2020/Nov/Green-hydrogen</t>
+  </si>
+  <si>
+    <t>Green hydrogen: A guide to policy making</t>
+  </si>
+  <si>
+    <t>IRENA Policy Talk 2 – Policies for Green Hydrogen</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/Events/2020/Nov/IRENA-Policy-Talk-2</t>
+  </si>
+  <si>
+    <t>policy makers</t>
+  </si>
+  <si>
+    <t>The Role of Green Hydrogen in Reaching Zero Emission</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/Events/2020/Jul/The-Role-of-Green-Hydrogen-in-Reaching-zero-Emission</t>
+  </si>
+  <si>
+    <t>no strong relation to hydrogen, hydrogen should be the main target of the action</t>
+  </si>
+  <si>
+    <t>Webinar</t>
+  </si>
+  <si>
+    <t>policy makers and industry</t>
+  </si>
+  <si>
+    <t>Hydrogen: A renewable energy perspective</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/Publications/2019/Sep/Hydrogen-A-renewable-energy-perspective</t>
+  </si>
+  <si>
+    <t>Hydrogen from renewable power: Technology outlook for the energy transition</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/Publications/2018/Sep/Hydrogen-from-renewable-power</t>
+  </si>
+  <si>
+    <t>IRENA and World Economic Forum Launch Green Hydrogen Toolbox at COP26</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/News/pressreleases/2021/Nov/IRENA-and-World-Economic-Forum-Launch-Green-Hydrogen-Toolbox-at-COP26</t>
+  </si>
+  <si>
+    <t>World Econmic Forum</t>
   </si>
 </sst>
 </file>
@@ -159,22 +514,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,140 +851,1095 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F66D987-BF66-44A8-867A-6F017997FA75}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C3" sqref="C3"/>
+      <selection pane="topRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="5.7109375" style="2" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="3" max="3" width="25.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="0" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="20.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.7109375" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="15.7109375" style="2" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="9" max="9" width="20.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.7109375" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="20.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="12" max="17" width="20.7109375" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="10.7109375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="2:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="2:17" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="M3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="M4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="6">
+        <v>45051</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="6">
+        <v>44957</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="6">
+        <v>44881</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="6">
+        <v>44873</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="135" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="6">
+        <v>44868</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="6">
+        <v>44852</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="6">
+        <v>44819</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="6">
+        <v>44749</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="6">
+        <v>44733</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="6">
+        <v>44732</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="3:17" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="6">
+        <v>44727</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="6">
+        <v>44701</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="6">
+        <v>44701</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="3:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="6">
+        <v>44691</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="6">
+        <v>44679</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="6">
+        <v>44678</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="6">
+        <v>44656</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="6">
+        <v>45001</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="6">
+        <v>44629</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="6">
+        <v>44628</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="6">
+        <v>44628</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="6">
+        <v>44576</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="6">
+        <v>44544</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="6">
+        <v>44504</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="C31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="6">
+        <v>44490</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="C32" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="6">
+        <v>44490</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="C33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="6">
+        <v>44482</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="C34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="6">
+        <v>44477</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="3:16" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="C35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="6">
+        <v>44468</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="C36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="6">
+        <v>44459</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="3:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="C37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="6">
+        <v>44447</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="C38" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="6">
+        <v>44357</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="3:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="C39" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="6">
+        <v>44343</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="3:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="C40" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="6">
+        <v>44343</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="3:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="C41" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="6">
+        <v>44182</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="3:16" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="C42" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="6">
+        <v>44182</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="3:16" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="C43" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="6">
+        <v>44160</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="C44" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" s="6">
+        <v>44154</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="3:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="C45" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" s="6">
+        <v>44019</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="3:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="C46" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" s="6">
+        <v>43738</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="3:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="C47" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" s="6">
+        <v>43349</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98B32DB-7C21-4254-93AE-2F800CC9DD39}">
+  <dimension ref="B2:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="5.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="2"/>
-    <col min="6" max="6" width="20.7109375" style="5" customWidth="1"/>
-    <col min="7" max="8" width="15.7109375" style="5" customWidth="1"/>
-    <col min="9" max="11" width="20.7109375" style="5" customWidth="1"/>
-    <col min="12" max="16" width="20.7109375" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="10.7109375" style="2"/>
+    <col min="1" max="1" width="10.7109375" style="3"/>
+    <col min="2" max="2" width="30.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>2</v>
+    <row r="2" spans="2:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>